--- a/natmiOut/OldD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H2">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I2">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J2">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.399594442798</v>
+        <v>143.0191385</v>
       </c>
       <c r="N2">
-        <v>141.399594442798</v>
+        <v>286.038277</v>
       </c>
       <c r="O2">
-        <v>0.5657928619958436</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P2">
-        <v>0.5657928619958436</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q2">
-        <v>10922.95922611578</v>
+        <v>11057.87530454553</v>
       </c>
       <c r="R2">
-        <v>10922.95922611578</v>
+        <v>44231.50121818213</v>
       </c>
       <c r="S2">
-        <v>0.1894169449490139</v>
+        <v>0.1815815224595612</v>
       </c>
       <c r="T2">
-        <v>0.1894169449490139</v>
+        <v>0.1246442920475355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H3">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I3">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J3">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.11452145892454</v>
+        <v>0.038432</v>
       </c>
       <c r="N3">
-        <v>3.11452145892454</v>
+        <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.01246236961949179</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P3">
-        <v>0.01246236961949179</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q3">
-        <v>240.5932707144914</v>
+        <v>2.971464296048</v>
       </c>
       <c r="R3">
-        <v>240.5932707144914</v>
+        <v>17.828785776288</v>
       </c>
       <c r="S3">
-        <v>0.004172169956019844</v>
+        <v>4.879445607320489E-05</v>
       </c>
       <c r="T3">
-        <v>0.004172169956019844</v>
+        <v>5.024148672211673E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H4">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I4">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J4">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.93606295157313</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N4">
-        <v>4.93606295157313</v>
+        <v>9.501127</v>
       </c>
       <c r="O4">
-        <v>0.01975104097976753</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P4">
-        <v>0.01975104097976753</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q4">
-        <v>381.3052970203918</v>
+        <v>244.8676420059468</v>
       </c>
       <c r="R4">
-        <v>381.3052970203918</v>
+        <v>1469.205852035681</v>
       </c>
       <c r="S4">
-        <v>0.006612281796474535</v>
+        <v>0.004020974917147525</v>
       </c>
       <c r="T4">
-        <v>0.006612281796474535</v>
+        <v>0.004140219487368554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H5">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I5">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J5">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.099109079072</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N5">
-        <v>100.099109079072</v>
+        <v>15.391724</v>
       </c>
       <c r="O5">
-        <v>0.4005341149121445</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P5">
-        <v>0.4005341149121445</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q5">
-        <v>7732.543302898487</v>
+        <v>396.6829579571287</v>
       </c>
       <c r="R5">
-        <v>7732.543302898487</v>
+        <v>2380.097747742772</v>
       </c>
       <c r="S5">
-        <v>0.1340913848345316</v>
+        <v>0.0065139363083619</v>
       </c>
       <c r="T5">
-        <v>0.1340913848345316</v>
+        <v>0.00670711123522486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H6">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I6">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J6">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364777692300393</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N6">
-        <v>0.364777692300393</v>
+        <v>312.62056</v>
       </c>
       <c r="O6">
-        <v>0.001459612492752738</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P6">
-        <v>0.001459612492752738</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q6">
-        <v>28.17866540066831</v>
+        <v>8057.008328567615</v>
       </c>
       <c r="R6">
-        <v>28.17866540066831</v>
+        <v>48342.04997140569</v>
       </c>
       <c r="S6">
-        <v>0.0004886511615069994</v>
+        <v>0.1323042445748397</v>
       </c>
       <c r="T6">
-        <v>0.0004886511615069994</v>
+        <v>0.1362278111495689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2358625935302</v>
+        <v>77.3174515</v>
       </c>
       <c r="H7">
-        <v>11.2358625935302</v>
+        <v>154.634903</v>
       </c>
       <c r="I7">
-        <v>0.04869402051600623</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J7">
-        <v>0.04869402051600623</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.399594442798</v>
+        <v>0.427696</v>
       </c>
       <c r="N7">
-        <v>141.399594442798</v>
+        <v>0.855392</v>
       </c>
       <c r="O7">
-        <v>0.5657928619958436</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P7">
-        <v>0.5657928619958436</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q7">
-        <v>1588.746413940175</v>
+        <v>33.068364736744</v>
       </c>
       <c r="R7">
-        <v>1588.746413940175</v>
+        <v>132.273458946976</v>
       </c>
       <c r="S7">
-        <v>0.02755072922983549</v>
+        <v>0.000543016072145229</v>
       </c>
       <c r="T7">
-        <v>0.02755072922983549</v>
+        <v>0.0003727463729028316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2358625935302</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H8">
-        <v>11.2358625935302</v>
+        <v>39.851258</v>
       </c>
       <c r="I8">
-        <v>0.04869402051600623</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J8">
-        <v>0.04869402051600623</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11452145892454</v>
+        <v>143.0191385</v>
       </c>
       <c r="N8">
-        <v>3.11452145892454</v>
+        <v>286.038277</v>
       </c>
       <c r="O8">
-        <v>0.01246236961949179</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P8">
-        <v>0.01246236961949179</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q8">
-        <v>34.99433515707734</v>
+        <v>1899.830862433744</v>
       </c>
       <c r="R8">
-        <v>34.99433515707734</v>
+        <v>11398.98517460247</v>
       </c>
       <c r="S8">
-        <v>0.000606842881929586</v>
+        <v>0.03119714872119898</v>
       </c>
       <c r="T8">
-        <v>0.000606842881929586</v>
+        <v>0.032122320021203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2358625935302</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H9">
-        <v>11.2358625935302</v>
+        <v>39.851258</v>
       </c>
       <c r="I9">
-        <v>0.04869402051600623</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J9">
-        <v>0.04869402051600623</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.93606295157313</v>
+        <v>0.038432</v>
       </c>
       <c r="N9">
-        <v>4.93606295157313</v>
+        <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.01975104097976753</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P9">
-        <v>0.01975104097976753</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q9">
-        <v>55.4609250768908</v>
+        <v>0.5105211824853333</v>
       </c>
       <c r="R9">
-        <v>55.4609250768908</v>
+        <v>4.594690642368</v>
       </c>
       <c r="S9">
-        <v>0.00096175759468128</v>
+        <v>8.383275359004621E-06</v>
       </c>
       <c r="T9">
-        <v>0.00096175759468128</v>
+        <v>1.294783008766558E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.2358625935302</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H10">
-        <v>11.2358625935302</v>
+        <v>39.851258</v>
       </c>
       <c r="I10">
-        <v>0.04869402051600623</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J10">
-        <v>0.04869402051600623</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.099109079072</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N10">
-        <v>100.099109079072</v>
+        <v>9.501127</v>
       </c>
       <c r="O10">
-        <v>0.4005341149121445</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P10">
-        <v>0.4005341149121445</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q10">
-        <v>1124.699835347244</v>
+        <v>42.07020704086289</v>
       </c>
       <c r="R10">
-        <v>1124.699835347244</v>
+        <v>378.631863367766</v>
       </c>
       <c r="S10">
-        <v>0.01950361640889236</v>
+        <v>0.0006908354484272958</v>
       </c>
       <c r="T10">
-        <v>0.01950361640889236</v>
+        <v>0.001066983919974082</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,122 +1092,122 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.2358625935302</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H11">
-        <v>11.2358625935302</v>
+        <v>39.851258</v>
       </c>
       <c r="I11">
-        <v>0.04869402051600623</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J11">
-        <v>0.04869402051600623</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.364777692300393</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N11">
-        <v>0.364777692300393</v>
+        <v>15.391724</v>
       </c>
       <c r="O11">
-        <v>0.001459612492752738</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P11">
-        <v>0.001459612492752738</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q11">
-        <v>4.098592027872255</v>
+        <v>68.15328490986577</v>
       </c>
       <c r="R11">
-        <v>4.098592027872255</v>
+        <v>613.3795641887921</v>
       </c>
       <c r="S11">
-        <v>7.107440066752081E-05</v>
+        <v>0.001119146028845754</v>
       </c>
       <c r="T11">
-        <v>7.107440066752081E-05</v>
+        <v>0.001728502524877224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.57591316126479</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H12">
-        <v>74.57591316126479</v>
+        <v>39.851258</v>
       </c>
       <c r="I12">
-        <v>0.3231973526950703</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J12">
-        <v>0.3231973526950703</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>141.399594442798</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N12">
-        <v>141.399594442798</v>
+        <v>312.62056</v>
       </c>
       <c r="O12">
-        <v>0.5657928619958436</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P12">
-        <v>0.5657928619958436</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q12">
-        <v>10545.00387620416</v>
+        <v>1384.258065851609</v>
       </c>
       <c r="R12">
-        <v>10545.00387620416</v>
+        <v>12458.32259266448</v>
       </c>
       <c r="S12">
-        <v>0.1828627551708239</v>
+        <v>0.0227309207376338</v>
       </c>
       <c r="T12">
-        <v>0.1828627551708239</v>
+        <v>0.03510753098798625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.57591316126479</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H13">
-        <v>74.57591316126479</v>
+        <v>39.851258</v>
       </c>
       <c r="I13">
-        <v>0.3231973526950703</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J13">
-        <v>0.3231973526950703</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11452145892454</v>
+        <v>0.427696</v>
       </c>
       <c r="N13">
-        <v>3.11452145892454</v>
+        <v>0.855392</v>
       </c>
       <c r="O13">
-        <v>0.01246236961949179</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P13">
-        <v>0.01246236961949179</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q13">
-        <v>232.2682818596522</v>
+        <v>5.681407880522667</v>
       </c>
       <c r="R13">
-        <v>232.2682818596522</v>
+        <v>34.08844728313601</v>
       </c>
       <c r="S13">
-        <v>0.004027804869327217</v>
+        <v>9.329447694485952E-05</v>
       </c>
       <c r="T13">
-        <v>0.004027804869327217</v>
+        <v>9.606118403369097E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>74.57591316126479</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H14">
-        <v>74.57591316126479</v>
+        <v>237.443939</v>
       </c>
       <c r="I14">
-        <v>0.3231973526950703</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J14">
-        <v>0.3231973526950703</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.93606295157313</v>
+        <v>143.0191385</v>
       </c>
       <c r="N14">
-        <v>4.93606295157313</v>
+        <v>286.038277</v>
       </c>
       <c r="O14">
-        <v>0.01975104097976753</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P14">
-        <v>0.01975104097976753</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q14">
-        <v>368.1114020350541</v>
+        <v>11319.67586594218</v>
       </c>
       <c r="R14">
-        <v>368.1114020350541</v>
+        <v>67918.0551956531</v>
       </c>
       <c r="S14">
-        <v>0.006383484157632713</v>
+        <v>0.185880553078909</v>
       </c>
       <c r="T14">
-        <v>0.006383484157632713</v>
+        <v>0.1913929591796827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>74.57591316126479</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H15">
-        <v>74.57591316126479</v>
+        <v>237.443939</v>
       </c>
       <c r="I15">
-        <v>0.3231973526950703</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J15">
-        <v>0.3231973526950703</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>100.099109079072</v>
+        <v>0.038432</v>
       </c>
       <c r="N15">
-        <v>100.099109079072</v>
+        <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.4005341149121445</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P15">
-        <v>0.4005341149121445</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q15">
-        <v>7464.982466200845</v>
+        <v>3.041815154549333</v>
       </c>
       <c r="R15">
-        <v>7464.982466200845</v>
+        <v>27.376336390944</v>
       </c>
       <c r="S15">
-        <v>0.1294515656036682</v>
+        <v>4.994968848822029E-05</v>
       </c>
       <c r="T15">
-        <v>0.1294515656036682</v>
+        <v>7.714646743442905E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,60 +1402,60 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>74.57591316126479</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H16">
-        <v>74.57591316126479</v>
+        <v>237.443939</v>
       </c>
       <c r="I16">
-        <v>0.3231973526950703</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J16">
-        <v>0.3231973526950703</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.364777692300393</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N16">
-        <v>0.364777692300393</v>
+        <v>9.501127</v>
       </c>
       <c r="O16">
-        <v>0.001459612492752738</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P16">
-        <v>0.001459612492752738</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q16">
-        <v>27.20362950416068</v>
+        <v>250.6650022021392</v>
       </c>
       <c r="R16">
-        <v>27.20362950416068</v>
+        <v>2255.985019819253</v>
       </c>
       <c r="S16">
-        <v>0.0004717428936183373</v>
+        <v>0.004116173448662738</v>
       </c>
       <c r="T16">
-        <v>0.0004717428936183373</v>
+        <v>0.006357361787884008</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>67.68354744240339</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H17">
-        <v>67.68354744240339</v>
+        <v>237.443939</v>
       </c>
       <c r="I17">
-        <v>0.2933271940913767</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J17">
-        <v>0.2933271940913767</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.399594442798</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N17">
-        <v>141.399594442798</v>
+        <v>15.391724</v>
       </c>
       <c r="O17">
-        <v>0.5657928619958436</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P17">
-        <v>0.5657928619958436</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q17">
-        <v>9570.426158805718</v>
+        <v>406.0746193956485</v>
       </c>
       <c r="R17">
-        <v>9570.426158805718</v>
+        <v>3654.671574560836</v>
       </c>
       <c r="S17">
-        <v>0.1659624326461703</v>
+        <v>0.006668156910011311</v>
       </c>
       <c r="T17">
-        <v>0.1659624326461703</v>
+        <v>0.01029885802044928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>67.68354744240339</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H18">
-        <v>67.68354744240339</v>
+        <v>237.443939</v>
       </c>
       <c r="I18">
-        <v>0.2933271940913767</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J18">
-        <v>0.2933271940913767</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11452145892454</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N18">
-        <v>3.11452145892454</v>
+        <v>312.62056</v>
       </c>
       <c r="O18">
-        <v>0.01246236961949179</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P18">
-        <v>0.01246236961949179</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q18">
-        <v>210.8018609255026</v>
+        <v>8247.761908753984</v>
       </c>
       <c r="R18">
-        <v>210.8018609255026</v>
+        <v>74229.85717878584</v>
       </c>
       <c r="S18">
-        <v>0.003655551912215145</v>
+        <v>0.1354366117385944</v>
       </c>
       <c r="T18">
-        <v>0.003655551912215145</v>
+        <v>0.2091796059826271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>67.68354744240339</v>
+        <v>79.14797966666667</v>
       </c>
       <c r="H19">
-        <v>67.68354744240339</v>
+        <v>237.443939</v>
       </c>
       <c r="I19">
-        <v>0.2933271940913767</v>
+        <v>0.332707317105706</v>
       </c>
       <c r="J19">
-        <v>0.2933271940913767</v>
+        <v>0.4178782884241973</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.93606295157313</v>
+        <v>0.427696</v>
       </c>
       <c r="N19">
-        <v>4.93606295157313</v>
+        <v>0.855392</v>
       </c>
       <c r="O19">
-        <v>0.01975104097976753</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P19">
-        <v>0.01975104097976753</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q19">
-        <v>334.0902509614897</v>
+        <v>33.85127431151467</v>
       </c>
       <c r="R19">
-        <v>334.0902509614897</v>
+        <v>203.107645869088</v>
       </c>
       <c r="S19">
-        <v>0.005793517430979006</v>
+        <v>0.0005558722410402234</v>
       </c>
       <c r="T19">
-        <v>0.005793517430979006</v>
+        <v>0.0005723569861198232</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.68354744240339</v>
+        <v>68.1415255</v>
       </c>
       <c r="H20">
-        <v>67.68354744240339</v>
+        <v>136.283051</v>
       </c>
       <c r="I20">
-        <v>0.2933271940913767</v>
+        <v>0.2864404654177555</v>
       </c>
       <c r="J20">
-        <v>0.2933271940913767</v>
+        <v>0.239844943328318</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.099109079072</v>
+        <v>143.0191385</v>
       </c>
       <c r="N20">
-        <v>100.099109079072</v>
+        <v>286.038277</v>
       </c>
       <c r="O20">
-        <v>0.4005341149121445</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P20">
-        <v>0.4005341149121445</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q20">
-        <v>6775.062798295682</v>
+        <v>9745.542273085781</v>
       </c>
       <c r="R20">
-        <v>6775.062798295682</v>
+        <v>38982.16909234312</v>
       </c>
       <c r="S20">
-        <v>0.1174875480650524</v>
+        <v>0.1600316837008914</v>
       </c>
       <c r="T20">
-        <v>0.1174875480650524</v>
+        <v>0.1098516834195781</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>68.1415255</v>
+      </c>
+      <c r="H21">
+        <v>136.283051</v>
+      </c>
+      <c r="I21">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J21">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.038432</v>
+      </c>
+      <c r="N21">
+        <v>0.115296</v>
+      </c>
+      <c r="O21">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P21">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q21">
+        <v>2.618815108016</v>
+      </c>
+      <c r="R21">
+        <v>15.712890648096</v>
+      </c>
+      <c r="S21">
+        <v>4.300359890639852E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.427889800057661E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>67.68354744240339</v>
-      </c>
-      <c r="H21">
-        <v>67.68354744240339</v>
-      </c>
-      <c r="I21">
-        <v>0.2933271940913767</v>
-      </c>
-      <c r="J21">
-        <v>0.2933271940913767</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="N21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="O21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="P21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="Q21">
-        <v>24.68944824274407</v>
-      </c>
-      <c r="R21">
-        <v>24.68944824274407</v>
-      </c>
-      <c r="S21">
-        <v>0.0004281440369598805</v>
-      </c>
-      <c r="T21">
-        <v>0.0004281440369598805</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>68.1415255</v>
+      </c>
+      <c r="H22">
+        <v>136.283051</v>
+      </c>
+      <c r="I22">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J22">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.501127</v>
+      </c>
+      <c r="O22">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P22">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q22">
+        <v>215.8070959164128</v>
+      </c>
+      <c r="R22">
+        <v>1294.842575498477</v>
+      </c>
+      <c r="S22">
+        <v>0.00354377129012935</v>
+      </c>
+      <c r="T22">
+        <v>0.003648864083086355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>68.1415255</v>
+      </c>
+      <c r="H23">
+        <v>136.283051</v>
+      </c>
+      <c r="I23">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J23">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N23">
+        <v>15.391724</v>
+      </c>
+      <c r="O23">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P23">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q23">
+        <v>349.6051844783207</v>
+      </c>
+      <c r="R23">
+        <v>2097.631106869924</v>
+      </c>
+      <c r="S23">
+        <v>0.005740871542585935</v>
+      </c>
+      <c r="T23">
+        <v>0.005911120741821286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>68.1415255</v>
+      </c>
+      <c r="H24">
+        <v>136.283051</v>
+      </c>
+      <c r="I24">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J24">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N24">
+        <v>312.62056</v>
+      </c>
+      <c r="O24">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P24">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q24">
+        <v>7100.813953688094</v>
+      </c>
+      <c r="R24">
+        <v>42604.88372212856</v>
+      </c>
+      <c r="S24">
+        <v>0.1166025635939989</v>
+      </c>
+      <c r="T24">
+        <v>0.1200604868262831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>68.1415255</v>
+      </c>
+      <c r="H25">
+        <v>136.283051</v>
+      </c>
+      <c r="I25">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J25">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.427696</v>
+      </c>
+      <c r="N25">
+        <v>0.855392</v>
+      </c>
+      <c r="O25">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P25">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q25">
+        <v>29.143857890248</v>
+      </c>
+      <c r="R25">
+        <v>116.575431560992</v>
+      </c>
+      <c r="S25">
+        <v>0.0004785716912435216</v>
+      </c>
+      <c r="T25">
+        <v>0.0003285093595485465</v>
       </c>
     </row>
   </sheetData>
